--- a/PayrollProject/templates/CourtOrderCTAEOCouncilTaxInputSheet.xlsx
+++ b/PayrollProject/templates/CourtOrderCTAEOCouncilTaxInputSheet.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AzizMugdal\Provar\NewPeopleXCDPayroll\PayrollProject\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AzizMugdal\git\24-7PeopleXCDPayroll\PayrollProject\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6573716-A314-42D7-8C41-4BDF85DCDE2C}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{976C7E78-CE96-4CF2-9CC9-57FD3A4F6835}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7485" activeTab="2" xr2:uid="{1571BB46-0028-4CBE-BD11-D3A64AAEE268}"/>
+    <workbookView xWindow="0" yWindow="1065" windowWidth="20490" windowHeight="7485" activeTab="2" xr2:uid="{1571BB46-0028-4CBE-BD11-D3A64AAEE268}"/>
   </bookViews>
   <sheets>
     <sheet name="October2018PayPeriod" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="18">
   <si>
     <t>EmpName</t>
   </si>
@@ -61,25 +61,31 @@
     <t>12000</t>
   </si>
   <si>
-    <t>October-2018</t>
-  </si>
-  <si>
-    <t>November-2018</t>
-  </si>
-  <si>
-    <t>December-2018</t>
-  </si>
-  <si>
     <t>C Employees over State pension age (attach passport/birth certificate)</t>
   </si>
   <si>
-    <t>DO NOT TOUCH AUTMN PAEO2003Fine</t>
-  </si>
-  <si>
     <t>DO NOT TOUCH AUTOMATION EMP 114</t>
   </si>
   <si>
     <t>CTAEOcounciltax_Payroll</t>
+  </si>
+  <si>
+    <t>DO NOT CTAEO CTaxOCT</t>
+  </si>
+  <si>
+    <t>DO NOT CTAEO CTaxNOV</t>
+  </si>
+  <si>
+    <t>DO NOT CTAEO CTaxDEC</t>
+  </si>
+  <si>
+    <t>October-2019</t>
+  </si>
+  <si>
+    <t>November-2019</t>
+  </si>
+  <si>
+    <t>December-2019</t>
   </si>
 </sst>
 </file>
@@ -143,7 +149,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -164,6 +170,9 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -483,8 +492,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{656F5891-C399-4E72-BDAD-0F4BF0D31C04}">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -523,10 +532,10 @@
     </row>
     <row r="2" spans="1:7" s="4" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>8</v>
@@ -535,22 +544,21 @@
         <v>7</v>
       </c>
       <c r="E2" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="3" t="s">
-        <v>9</v>
-      </c>
       <c r="G2" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1" tooltip="DO NOT TOUCH AUTMN PAEOMaintenance" display="http://xcdautomationlex--payrolfull.lightning.force.com/lightning/r/sObject/00O1q000000JibCEAS/view?queryScope=userFolders" xr:uid="{A1AA857D-2A46-4BCF-80F7-C81D52FAD5E3}"/>
-    <hyperlink ref="E2" r:id="rId2" display="https://xcdautomationlex--payrolfull--xcdhcm.cs107.visual.force.com/a0m1q000000f8ICAAY" xr:uid="{64370C33-AEDB-401C-A439-370F67AE9846}"/>
+    <hyperlink ref="E2" r:id="rId1" display="https://xcdautomationlex--payrolfull--xcdhcm.cs107.visual.force.com/a0m1q000000f8ICAAY" xr:uid="{64370C33-AEDB-401C-A439-370F67AE9846}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -558,8 +566,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0C9D326-24C3-49F9-A6BB-B9862FE77EE5}">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -598,10 +606,10 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>8</v>
@@ -610,10 +618,10 @@
         <v>7</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>13</v>
@@ -621,8 +629,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1" tooltip="DO NOT TOUCH AUTMN PAEOMaintenance" display="http://xcdautomationlex--payrolfull.lightning.force.com/lightning/r/sObject/00O1q000000JibCEAS/view?queryScope=userFolders" xr:uid="{2A72D3AC-6741-4325-BE86-42C8A2782DC7}"/>
-    <hyperlink ref="E2" r:id="rId2" display="https://xcdautomationlex--payrolfull--xcdhcm.cs107.visual.force.com/a0m1q000000f8ICAAY" xr:uid="{CA47B34C-826F-4F99-99BD-B384DD714137}"/>
+    <hyperlink ref="E2" r:id="rId1" display="https://xcdautomationlex--payrolfull--xcdhcm.cs107.visual.force.com/a0m1q000000f8ICAAY" xr:uid="{CA47B34C-826F-4F99-99BD-B384DD714137}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -632,8 +639,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9FB080A-92DF-4846-AF59-D028CA8F2A66}">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -672,10 +679,10 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>8</v>
@@ -683,22 +690,21 @@
       <c r="D2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="7" t="s">
-        <v>15</v>
+      <c r="E2" s="8" t="s">
+        <v>11</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1" tooltip="DO NOT TOUCH AUTMN PAEOMaintenance" display="http://xcdautomationlex--payrolfull.lightning.force.com/lightning/r/sObject/00O1q000000JibCEAS/view?queryScope=userFolders" xr:uid="{047BAA40-002A-4FA5-916E-1C35D710F457}"/>
-    <hyperlink ref="E2" r:id="rId2" display="https://xcdautomationlex--payrolfull--xcdhcm.cs107.visual.force.com/a0m1q000000f8ICAAY" xr:uid="{C2F5ACAA-AB8E-46A3-B5CF-AB84C8F2394A}"/>
+    <hyperlink ref="E2" r:id="rId1" display="https://xcdautomationlex--payrolfull--xcdhcm.cs107.visual.force.com/a0m1q000000f8ICAAY" xr:uid="{C2F5ACAA-AB8E-46A3-B5CF-AB84C8F2394A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>